--- a/Dataset/Folds/Fold_5/Excel/99.xlsx
+++ b/Dataset/Folds/Fold_5/Excel/99.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1011" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1131" uniqueCount="164">
   <si>
     <t>Doi</t>
   </si>
@@ -481,6 +481,51 @@
   </si>
   <si>
     <t>[Miao%Qu%NULL%1,                           Kun%Yang%NULL%1,                           Yujia%Cao%NULL%1,                           Mei Hong%Xiu%xiumeihong97@163.com%1,                           Xiang Yang%Zhang%zhangxy@psych.ac.cn%2,                           Xiang Yang%Zhang%zhangxy@psych.ac.cn%0]</t>
+  </si>
+  <si>
+    <t>[Shuang-Jiang%Zhou%NULL%0,                            Li-Gang%Zhang%NULL%0,                            Lei-Lei%Wang%NULL%0,                            Zhao-Chang%Guo%NULL%0,                            Jing-Qi%Wang%NULL%0,                            Jin-Cheng%Chen%NULL%0,                            Mei%Liu%NULL%0,                            Xi%Chen%NULL%0,                            Jing-Xu%Chen%chenjx1110@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Benjamin%Oosterhoff%Benjamin.oosterhoff@montana.edu%0,                            Cara A.%Palmer%NULL%0,                            Jenna%Wilson%NULL%0,                            Natalie%Shook%NULL%0]</t>
+  </si>
+  <si>
+    <t>[İsmail%Seçer%ismailsecer84@gmail.com%0,                            Sümeyye%Ulaş%NULL%0,                            Sümeyye%Ulaş%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Miao%Qu%NULL%1,                            Kun%Yang%NULL%1,                            Yujia%Cao%NULL%1,                            Mei Hong%Xiu%xiumeihong97@163.com%1,                            Xiang Yang%Zhang%zhangxy@psych.ac.cn%2,                            Xiang Yang%Zhang%zhangxy@psych.ac.cn%0]</t>
+  </si>
+  <si>
+    <t>[Shuang-Jiang%Zhou%NULL%0,                             Li-Gang%Zhang%NULL%0,                             Lei-Lei%Wang%NULL%0,                             Zhao-Chang%Guo%NULL%0,                             Jing-Qi%Wang%NULL%0,                             Jin-Cheng%Chen%NULL%0,                             Mei%Liu%NULL%0,                             Xi%Chen%NULL%0,                             Jing-Xu%Chen%chenjx1110@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Benjamin%Oosterhoff%Benjamin.oosterhoff@montana.edu%0,                             Cara A.%Palmer%NULL%0,                             Jenna%Wilson%NULL%0,                             Natalie%Shook%NULL%0]</t>
+  </si>
+  <si>
+    <t>[İsmail%Seçer%ismailsecer84@gmail.com%0,                             Sümeyye%Ulaş%NULL%0,                             Sümeyye%Ulaş%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Miao%Qu%NULL%1,                             Kun%Yang%NULL%1,                             Yujia%Cao%NULL%1,                             Mei Hong%Xiu%xiumeihong97@163.com%1,                             Xiang Yang%Zhang%zhangxy@psych.ac.cn%2,                             Xiang Yang%Zhang%zhangxy@psych.ac.cn%0]</t>
+  </si>
+  <si>
+    <t>[Shuang-Jiang%Zhou%NULL%0, Li-Gang%Zhang%NULL%0, Lei-Lei%Wang%NULL%0, Zhao-Chang%Guo%NULL%0, Jing-Qi%Wang%NULL%0, Jin-Cheng%Chen%NULL%0, Mei%Liu%NULL%0, Xi%Chen%NULL%0, Jing-Xu%Chen%chenjx1110@163.com%0]</t>
+  </si>
+  <si>
+    <t>Springer Berlin Heidelberg</t>
+  </si>
+  <si>
+    <t>[Benjamin%Oosterhoff%Benjamin.oosterhoff@montana.edu%0, Cara A.%Palmer%NULL%0, Jenna%Wilson%NULL%0, Natalie%Shook%NULL%0]</t>
+  </si>
+  <si>
+    <t>Society for Adolescent Health and Medicine.</t>
+  </si>
+  <si>
+    <t>[İsmail%Seçer%ismailsecer84@gmail.com%0, Sümeyye%Ulaş%NULL%0, Sümeyye%Ulaş%NULL%0]</t>
+  </si>
+  <si>
+    <t>Springer US</t>
+  </si>
+  <si>
+    <t>[Miao%Qu%NULL%0, Kun%Yang%NULL%0, Yujia%Cao%NULL%1, Mei Hong%Xiu%xiumeihong97@163.com%1, Xiang Yang%Zhang%zhangxy@psych.ac.cn%2, Xiang Yang%Zhang%zhangxy@psych.ac.cn%0]</t>
   </si>
 </sst>
 </file>
@@ -812,7 +857,7 @@
         <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="F2" t="s">
         <v>20</v>
@@ -824,10 +869,10 @@
         <v>22</v>
       </c>
       <c r="I2" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="J2" t="s">
-        <v>121</v>
+        <v>158</v>
       </c>
     </row>
     <row r="3">
@@ -844,7 +889,7 @@
         <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="F3" t="s">
         <v>26</v>
@@ -856,10 +901,10 @@
         <v>27</v>
       </c>
       <c r="I3" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="J3" t="s">
-        <v>121</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4">
@@ -876,7 +921,7 @@
         <v>29</v>
       </c>
       <c r="E4" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="F4" t="s">
         <v>31</v>
@@ -888,10 +933,10 @@
         <v>32</v>
       </c>
       <c r="I4" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="J4" t="s">
-        <v>121</v>
+        <v>162</v>
       </c>
     </row>
     <row r="5">
@@ -908,7 +953,7 @@
         <v>34</v>
       </c>
       <c r="E5" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="F5" t="s">
         <v>36</v>
@@ -920,10 +965,10 @@
         <v>37</v>
       </c>
       <c r="I5" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="J5" t="s">
-        <v>121</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
